--- a/boxsite/育儿宝典.xlsx
+++ b/boxsite/育儿宝典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" tabRatio="858"/>
+    <workbookView windowWidth="20370" windowHeight="7950" tabRatio="858"/>
   </bookViews>
   <sheets>
     <sheet name="思路" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>表现形态</t>
   </si>
@@ -95,13 +95,118 @@
     <t>沟通</t>
   </si>
   <si>
+    <t>常识</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>专家</t>
+  </si>
+  <si>
     <t>辅导</t>
   </si>
   <si>
     <t>成长</t>
   </si>
   <si>
+    <t>奶爸成长记</t>
+  </si>
+  <si>
+    <t>国内</t>
+  </si>
+  <si>
+    <t>国外</t>
+  </si>
+  <si>
+    <t>谬论/错误</t>
+  </si>
+  <si>
     <t>购物攻略</t>
+  </si>
+  <si>
+    <t>年龄跳转</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>最新</t>
+  </si>
+  <si>
+    <t>专家/国外</t>
+  </si>
+  <si>
+    <t>问答/知道</t>
+  </si>
+  <si>
+    <t>妈妈购</t>
+  </si>
+  <si>
+    <t>导航</t>
+  </si>
+  <si>
+    <t>健康/预防</t>
+  </si>
+  <si>
+    <t>日常/注意</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>热门</t>
+  </si>
+  <si>
+    <t>自定义</t>
+  </si>
+  <si>
+    <t>母乳</t>
+  </si>
+  <si>
+    <t>辅食</t>
+  </si>
+  <si>
+    <t>用品</t>
+  </si>
+  <si>
+    <t>认知</t>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>玩具</t>
+  </si>
+  <si>
+    <t>注意项</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>每天活动</t>
+  </si>
+  <si>
+    <t>摇铃</t>
+  </si>
+  <si>
+    <t>便便</t>
+  </si>
+  <si>
+    <t>洗澡</t>
+  </si>
+  <si>
+    <t>时期特征</t>
+  </si>
+  <si>
+    <t>流口水</t>
+  </si>
+  <si>
+    <t>断奶</t>
+  </si>
+  <si>
+    <t>疾病预防</t>
   </si>
 </sst>
 </file>
@@ -109,10 +214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -155,7 +260,6 @@
       <sz val="9.75"/>
       <color indexed="63"/>
       <name val="Helvetica"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -547,11 +651,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -575,10 +679,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -591,7 +695,6 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1"/>
       <c r="D1" t="s">
         <v>1</v>
       </c>
@@ -603,7 +706,6 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2"/>
       <c r="E2" t="s">
         <v>4</v>
       </c>
@@ -621,14 +723,12 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4"/>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="J4"/>
       <c r="K4" t="s">
         <v>10</v>
       </c>
@@ -643,7 +743,6 @@
       <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="J5"/>
       <c r="K5" t="s">
         <v>13</v>
       </c>
@@ -685,33 +784,126 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:11">
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="9:9">
+      <c r="I15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16"/>
+        <v>33</v>
+      </c>
       <c r="L16" s="7"/>
     </row>
+    <row r="20" spans="12:12">
+      <c r="L20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="12:12">
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13">
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7">
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
@@ -738,10 +930,6 @@
   <sheetData>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:1">
@@ -749,45 +937,32 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
-      <c r="B11"/>
-      <c r="C11"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
-      <c r="B12"/>
-      <c r="C12"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1"/>
-      <c r="B13"/>
-      <c r="C13"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3"/>
-      <c r="B14"/>
-      <c r="C14"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3"/>
-      <c r="B15"/>
-      <c r="C15"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3"/>
-      <c r="B16"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1"/>
-      <c r="B17"/>
-      <c r="C17"/>
       <c r="F17" s="2"/>
     </row>
     <row r="20" spans="7:8">
@@ -805,7 +980,7 @@
       <c r="B31" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -825,7 +1000,7 @@
     <col min="2" max="2" width="17.6" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -834,14 +1009,90 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9">
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/boxsite/育儿宝典.xlsx
+++ b/boxsite/育儿宝典.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>表现形态</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>购物攻略</t>
+  </si>
+  <si>
+    <t>app/页面规划</t>
   </si>
   <si>
     <t>年龄跳转</t>
@@ -214,10 +217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -679,10 +682,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -831,75 +834,78 @@
       </c>
       <c r="L16" s="7"/>
     </row>
-    <row r="20" spans="12:12">
-      <c r="L20" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="12:12">
-      <c r="L21" t="s">
+      <c r="H22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="7:13">
-      <c r="G22" t="s">
+    <row r="23" spans="8:8">
+      <c r="H23" t="s">
         <v>36</v>
       </c>
-      <c r="H22" t="s">
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="I22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="E24" t="s">
         <v>38</v>
       </c>
-      <c r="K22" t="s">
+      <c r="F24" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23" t="s">
+      <c r="I24" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="6:6">
-      <c r="F24" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="6:6">
-      <c r="F27" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="6:7">
-      <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" t="s">
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="7:7">
-      <c r="G29" t="s">
+      <c r="C30" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1024,15 +1030,15 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1040,13 +1046,13 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -1056,40 +1062,40 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="9:9">
       <c r="I9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
